--- a/Output/PBL/Customer/Other_DoD/Other_DoD_Contracts.xlsx
+++ b/Output/PBL/Customer/Other_DoD/Other_DoD_Contracts.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -154,15 +155,28 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -198,10 +212,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3009,4 +3024,640 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>7085</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>44431060</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>21140332.0996</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>175619159.2582</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>118563060.1874</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>342457582.6772</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>63282255.0195</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>296519057.4979</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>71377960.0275</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>105699716.94</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>461118715.7527</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>565545226.0718</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>963020374.5906</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>943840359.9696</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>440011065.9585</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>655679600.4811</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>652732953.1515</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>631519798.79</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>794940003.9513</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>411410694.89</v>
+      </c>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>1219878</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3" t="n">
+        <v>-105145</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>-1300</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>-62595.4799</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>-2174.75</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>-5095.8701</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>-100569.0899</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>-26786.5391</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>-430971.9688</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>-93599.3134</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>-320988.5469</v>
+      </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="n">
+        <v>111569</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>7178271</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>7619211.25</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>5868391.5874</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>-9649340.8418</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>-5237814.0721</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>63617199.5712</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>-183270.2631</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>65474972.52</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>8922326.4447</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>28211638.2245</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>25354413.8124</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>88652645.4512</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>136835219.2763</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>480733349.2919</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>166283603.4493</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>184936454.0108</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>167621588.7389</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>-7652114.02</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>10641.8844649611</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>64637105.1367917</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>29930414.5211776</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>243584033.200455</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>162782507.578249</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>466144035.482646</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>84443210.2664371</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>388620156.352142</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>91881341.1112223</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>133624321.117575</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>576965576.373487</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>702014498.435137</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>1175558971.48857</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>1127123779.12517</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>515917307.11392</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>758877489.512269</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>730330995.335351</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>660409679.082038</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>794940003.9513</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>400709355.646614</v>
+      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>1832293.68205333</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="n">
+        <v>-143120.541316856</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>-1734.70704090019</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>-80576.0859304009</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>-2749.2930044023</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="n">
+        <v>-6325.53247277864</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>-122764.688064513</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>-31988.1904404349</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>-505318.876698094</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>-108330.977387349</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>-359148.230247713</v>
+      </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="n">
+        <v>162307.565541014</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>10162973.1057732</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>10567857.253847</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>8057075.25209099</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>-13134422.7935638</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>-6989286.88445999</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>83377190.8377938</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>-235914.805535867</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>82772679.1183671</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>11163882.6269623</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>35019266.6212897</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>30950132.9467422</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>105868014.346853</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>160440641.858834</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>556396320.653837</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>186051690.861836</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>193396667.021133</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>167621588.7389</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>-7453072.35901695</v>
+      </c>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Customer/Other_DoD/Other_DoD_Contracts.xlsx
+++ b/Output/PBL/Customer/Other_DoD/Other_DoD_Contracts.xlsx
@@ -173,10 +173,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -212,11 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3112,68 +3114,68 @@
       <c r="M2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="4" t="n">
         <v>7085</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="4" t="n">
         <v>44431060</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="4" t="n">
         <v>21140332.0996</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="4" t="n">
         <v>175619159.2582</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <v>118563060.1874</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <v>342457582.6772</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <v>63282255.0195</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="4" t="n">
         <v>296519057.4979</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <v>71377960.0275</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>105699716.94</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="4" t="n">
         <v>461118715.7527</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="4" t="n">
         <v>565545226.0718</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="4" t="n">
         <v>963020374.5906</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="4" t="n">
         <v>943840359.9696</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="4" t="n">
         <v>440011065.9585</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AC2" s="4" t="n">
         <v>655679600.4811</v>
       </c>
-      <c r="AD2" s="3" t="n">
+      <c r="AD2" s="4" t="n">
         <v>652732953.1515</v>
       </c>
-      <c r="AE2" s="3" t="n">
+      <c r="AE2" s="4" t="n">
         <v>631519798.79</v>
       </c>
-      <c r="AF2" s="3" t="n">
+      <c r="AF2" s="4" t="n">
         <v>794940003.9513</v>
       </c>
-      <c r="AG2" s="3" t="n">
+      <c r="AG2" s="4" t="n">
         <v>411410694.89</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3182,52 +3184,52 @@
       <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="4" t="n">
         <v>1219878</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="n">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="n">
         <v>-105145</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <v>-1300</v>
       </c>
-      <c r="U3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3" t="n">
+      <c r="U3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>-62595.4799</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <v>-2174.75</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3" t="n">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4" t="n">
         <v>-5095.8701</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="4" t="n">
         <v>-100569.0899</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="4" t="n">
         <v>-26786.5391</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="4" t="n">
         <v>-430971.9688</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="4" t="n">
         <v>-93599.3134</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="4" t="n">
         <v>-320988.5469</v>
       </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3236,66 +3238,66 @@
       <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="n">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="n">
         <v>111569</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <v>7178271</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <v>7619211.25</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <v>5868391.5874</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <v>-9649340.8418</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <v>-5237814.0721</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="4" t="n">
         <v>63617199.5712</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="4" t="n">
         <v>-183270.2631</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <v>65474972.52</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="4" t="n">
         <v>8922326.4447</v>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="4" t="n">
         <v>28211638.2245</v>
       </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Z4" s="4" t="n">
         <v>25354413.8124</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="4" t="n">
         <v>88652645.4512</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="4" t="n">
         <v>136835219.2763</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="4" t="n">
         <v>480733349.2919</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="4" t="n">
         <v>166283603.4493</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="4" t="n">
         <v>184936454.0108</v>
       </c>
-      <c r="AF4" s="3" t="n">
+      <c r="AF4" s="4" t="n">
         <v>167621588.7389</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="4" t="n">
         <v>-7652114.02</v>
       </c>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3304,70 +3306,70 @@
       <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="N5" s="4" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="3" t="str">
+      <c r="O5" s="4" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="3" t="str">
+      <c r="P5" s="4" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="4" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="R5" s="4" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="3" t="str">
+      <c r="S5" s="4" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="3" t="str">
+      <c r="T5" s="4" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="3" t="str">
+      <c r="U5" s="4" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="3" t="str">
+      <c r="V5" s="4" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="3" t="str">
+      <c r="W5" s="4" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="3" t="str">
+      <c r="X5" s="4" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="3" t="str">
+      <c r="Y5" s="4" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="3" t="str">
+      <c r="Z5" s="4" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="3" t="str">
+      <c r="AA5" s="4" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="3" t="str">
+      <c r="AB5" s="4" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="3" t="str">
+      <c r="AC5" s="4" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="3" t="str">
+      <c r="AD5" s="4" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="3" t="str">
+      <c r="AE5" s="4" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="3" t="str">
+      <c r="AF5" s="4" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="3" t="str">
+      <c r="AG5" s="4" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="3" t="str">
+      <c r="AH5" s="4" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="3"/>
+      <c r="AI5" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -3444,68 +3446,68 @@
       <c r="M9" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="4" t="n">
         <v>10641.8844649611</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="4" t="n">
         <v>64637105.1367917</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>29930414.5211776</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>243584033.200455</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <v>162782507.578249</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <v>466144035.482646</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <v>84443210.2664371</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="4" t="n">
         <v>388620156.352142</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="4" t="n">
         <v>91881341.1112223</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="4" t="n">
         <v>133624321.117575</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="4" t="n">
         <v>576965576.373487</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="4" t="n">
         <v>702014498.435137</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="4" t="n">
         <v>1175558971.48857</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="4" t="n">
         <v>1127123779.12517</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="4" t="n">
         <v>515917307.11392</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="4" t="n">
         <v>758877489.512269</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AD9" s="4" t="n">
         <v>730330995.335351</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="4" t="n">
         <v>660409679.082038</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="4" t="n">
         <v>794940003.9513</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="4" t="n">
         <v>400709355.646614</v>
       </c>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3514,52 +3516,52 @@
       <c r="M10" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="4" t="n">
         <v>1832293.68205333</v>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3" t="n">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="n">
         <v>-143120.541316856</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="4" t="n">
         <v>-1734.70704090019</v>
       </c>
-      <c r="U10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="n">
+      <c r="U10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="n">
         <v>-80576.0859304009</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <v>-2749.2930044023</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3" t="n">
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4" t="n">
         <v>-6325.53247277864</v>
       </c>
-      <c r="Z10" s="3" t="n">
+      <c r="Z10" s="4" t="n">
         <v>-122764.688064513</v>
       </c>
-      <c r="AA10" s="3" t="n">
+      <c r="AA10" s="4" t="n">
         <v>-31988.1904404349</v>
       </c>
-      <c r="AB10" s="3" t="n">
+      <c r="AB10" s="4" t="n">
         <v>-505318.876698094</v>
       </c>
-      <c r="AC10" s="3" t="n">
+      <c r="AC10" s="4" t="n">
         <v>-108330.977387349</v>
       </c>
-      <c r="AD10" s="3" t="n">
+      <c r="AD10" s="4" t="n">
         <v>-359148.230247713</v>
       </c>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -3568,93 +3570,93 @@
       <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="n">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="n">
         <v>162307.565541014</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>10162973.1057732</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>10567857.253847</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <v>8057075.25209099</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <v>-13134422.7935638</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <v>-6989286.88445999</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="4" t="n">
         <v>83377190.8377938</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <v>-235914.805535867</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <v>82772679.1183671</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="4" t="n">
         <v>11163882.6269623</v>
       </c>
-      <c r="Y11" s="3" t="n">
+      <c r="Y11" s="4" t="n">
         <v>35019266.6212897</v>
       </c>
-      <c r="Z11" s="3" t="n">
+      <c r="Z11" s="4" t="n">
         <v>30950132.9467422</v>
       </c>
-      <c r="AA11" s="3" t="n">
+      <c r="AA11" s="4" t="n">
         <v>105868014.346853</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="4" t="n">
         <v>160440641.858834</v>
       </c>
-      <c r="AC11" s="3" t="n">
+      <c r="AC11" s="4" t="n">
         <v>556396320.653837</v>
       </c>
-      <c r="AD11" s="3" t="n">
+      <c r="AD11" s="4" t="n">
         <v>186051690.861836</v>
       </c>
-      <c r="AE11" s="3" t="n">
+      <c r="AE11" s="4" t="n">
         <v>193396667.021133</v>
       </c>
-      <c r="AF11" s="3" t="n">
+      <c r="AF11" s="4" t="n">
         <v>167621588.7389</v>
       </c>
-      <c r="AG11" s="3" t="n">
+      <c r="AG11" s="4" t="n">
         <v>-7453072.35901695</v>
       </c>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Customer/Other_DoD/Other_DoD_Contracts.xlsx
+++ b/Output/PBL/Customer/Other_DoD/Other_DoD_Contracts.xlsx
@@ -174,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -215,10 +215,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
